--- a/ApiXLS/upload/SHIFT.xlsx
+++ b/ApiXLS/upload/SHIFT.xlsx
@@ -20,6 +20,7 @@
     <sheet name="F" sheetId="24" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="20">
   <si>
     <t>REG</t>
   </si>
@@ -56,12 +57,6 @@
   </si>
   <si>
     <t>FN</t>
-  </si>
-  <si>
-    <t>EXIT TIME</t>
-  </si>
-  <si>
-    <t>FUEL</t>
   </si>
   <si>
     <t>WCH</t>
@@ -823,46 +818,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
@@ -883,14 +851,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,8 +1466,8 @@
   </sheetPr>
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1486,110 +1481,110 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="L3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1601,14 +1596,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1627,7 +1622,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1639,16 +1634,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="10"/>
       <c r="P8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -1665,7 +1658,7 @@
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="14"/>
@@ -1677,14 +1670,14 @@
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
@@ -1701,7 +1694,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
@@ -1713,14 +1706,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -1737,9 +1730,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
@@ -1751,14 +1742,14 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -1770,14 +1761,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1796,7 +1787,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1808,16 +1799,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="10"/>
       <c r="P17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -1834,7 +1823,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="14"/>
@@ -1846,14 +1835,14 @@
       <c r="N19" s="14"/>
       <c r="O19" s="9"/>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="14"/>
@@ -1870,7 +1859,7 @@
       <c r="B21" s="28"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="14"/>
@@ -1882,14 +1871,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="9"/>
       <c r="P21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="14"/>
@@ -1906,9 +1895,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
@@ -1920,14 +1907,14 @@
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1939,14 +1926,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1965,7 +1952,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1977,16 +1964,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="12"/>
@@ -2003,7 +1988,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="14"/>
@@ -2015,14 +2000,14 @@
       <c r="N28" s="14"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="14"/>
@@ -2039,7 +2024,7 @@
       <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="14"/>
@@ -2051,14 +2036,14 @@
       <c r="N30" s="14"/>
       <c r="O30" s="9"/>
       <c r="P30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="14"/>
@@ -2075,9 +2060,7 @@
       <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="58" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
@@ -2089,14 +2072,14 @@
       <c r="N32" s="12"/>
       <c r="O32" s="8"/>
       <c r="P32" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -2108,14 +2091,14 @@
       <c r="N33" s="34"/>
       <c r="O33" s="35"/>
       <c r="P33" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2134,7 +2117,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2146,16 +2129,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="10"/>
       <c r="P35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
@@ -2172,7 +2153,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="55"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
@@ -2184,14 +2165,14 @@
       <c r="N37" s="14"/>
       <c r="O37" s="9"/>
       <c r="P37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="55"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
@@ -2208,7 +2189,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="14"/>
@@ -2220,14 +2201,14 @@
       <c r="N39" s="14"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="14"/>
@@ -2244,9 +2225,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="E41" s="39"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -2258,25 +2237,11 @@
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E26"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="E33:E35"/>
     <mergeCell ref="E36:E40"/>
@@ -2293,9 +2258,23 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -2307,8 +2286,8 @@
   </sheetPr>
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,110 +2301,110 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="L3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2437,14 +2416,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2463,7 +2442,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2475,16 +2454,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="10"/>
       <c r="P8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -2501,7 +2478,7 @@
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="14"/>
@@ -2513,14 +2490,14 @@
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
@@ -2537,7 +2514,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
@@ -2549,14 +2526,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -2573,9 +2550,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
@@ -2587,14 +2562,14 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2606,14 +2581,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2632,7 +2607,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -2644,16 +2619,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="10"/>
       <c r="P17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -2670,7 +2643,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="14"/>
@@ -2682,14 +2655,14 @@
       <c r="N19" s="14"/>
       <c r="O19" s="9"/>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="14"/>
@@ -2706,7 +2679,7 @@
       <c r="B21" s="28"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="14"/>
@@ -2718,14 +2691,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="9"/>
       <c r="P21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="14"/>
@@ -2742,9 +2715,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
@@ -2756,14 +2727,14 @@
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2775,14 +2746,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2801,7 +2772,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2813,16 +2784,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="12"/>
@@ -2839,7 +2808,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="14"/>
@@ -2851,14 +2820,14 @@
       <c r="N28" s="14"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="14"/>
@@ -2875,7 +2844,7 @@
       <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="14"/>
@@ -2887,14 +2856,14 @@
       <c r="N30" s="14"/>
       <c r="O30" s="9"/>
       <c r="P30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="14"/>
@@ -2911,9 +2880,7 @@
       <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="58" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
@@ -2925,14 +2892,14 @@
       <c r="N32" s="12"/>
       <c r="O32" s="8"/>
       <c r="P32" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -2944,14 +2911,14 @@
       <c r="N33" s="34"/>
       <c r="O33" s="35"/>
       <c r="P33" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2970,7 +2937,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2982,16 +2949,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="10"/>
       <c r="P35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
@@ -3008,7 +2973,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="55"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
@@ -3020,14 +2985,14 @@
       <c r="N37" s="14"/>
       <c r="O37" s="9"/>
       <c r="P37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="55"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
@@ -3044,7 +3009,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="14"/>
@@ -3056,14 +3021,14 @@
       <c r="N39" s="14"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="14"/>
@@ -3080,9 +3045,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="E41" s="39"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -3094,11 +3057,31 @@
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -3109,29 +3092,9 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E35"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3143,8 +3106,8 @@
   </sheetPr>
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,110 +3121,110 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="L3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -3273,14 +3236,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -3299,7 +3262,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3311,16 +3274,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="10"/>
       <c r="P8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -3337,7 +3298,7 @@
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="14"/>
@@ -3349,14 +3310,14 @@
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
@@ -3373,7 +3334,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
@@ -3385,14 +3346,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -3409,9 +3370,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
@@ -3423,14 +3382,14 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3442,14 +3401,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3468,7 +3427,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3480,16 +3439,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="10"/>
       <c r="P17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -3506,7 +3463,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="14"/>
@@ -3518,14 +3475,14 @@
       <c r="N19" s="14"/>
       <c r="O19" s="9"/>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="14"/>
@@ -3542,7 +3499,7 @@
       <c r="B21" s="28"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="14"/>
@@ -3554,14 +3511,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="9"/>
       <c r="P21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="14"/>
@@ -3578,9 +3535,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
@@ -3592,14 +3547,14 @@
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -3611,14 +3566,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3637,7 +3592,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3649,16 +3604,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="12"/>
@@ -3675,7 +3628,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="14"/>
@@ -3687,14 +3640,14 @@
       <c r="N28" s="14"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="14"/>
@@ -3711,7 +3664,7 @@
       <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="14"/>
@@ -3723,14 +3676,14 @@
       <c r="N30" s="14"/>
       <c r="O30" s="9"/>
       <c r="P30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="14"/>
@@ -3747,9 +3700,7 @@
       <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="58" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
@@ -3761,14 +3712,14 @@
       <c r="N32" s="12"/>
       <c r="O32" s="8"/>
       <c r="P32" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -3780,14 +3731,14 @@
       <c r="N33" s="34"/>
       <c r="O33" s="35"/>
       <c r="P33" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3806,7 +3757,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3818,16 +3769,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="10"/>
       <c r="P35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
@@ -3844,7 +3793,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="55"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
@@ -3856,14 +3805,14 @@
       <c r="N37" s="14"/>
       <c r="O37" s="9"/>
       <c r="P37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="55"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
@@ -3880,7 +3829,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="14"/>
@@ -3892,14 +3841,14 @@
       <c r="N39" s="14"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="14"/>
@@ -3916,9 +3865,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="E41" s="39"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -3930,11 +3877,31 @@
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -3945,29 +3912,9 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E35"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3979,8 +3926,8 @@
   </sheetPr>
   <dimension ref="B1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3994,110 +3941,110 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="L3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4109,14 +4056,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4135,7 +4082,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4147,16 +4094,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="10"/>
       <c r="P8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -4173,7 +4118,7 @@
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="14"/>
@@ -4185,14 +4130,14 @@
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
@@ -4209,7 +4154,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
@@ -4221,14 +4166,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -4245,9 +4190,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
@@ -4259,14 +4202,14 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4278,14 +4221,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4304,7 +4247,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4316,16 +4259,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="10"/>
       <c r="P17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -4342,7 +4283,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="14"/>
@@ -4354,14 +4295,14 @@
       <c r="N19" s="14"/>
       <c r="O19" s="9"/>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="14"/>
@@ -4378,7 +4319,7 @@
       <c r="B21" s="28"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="14"/>
@@ -4390,14 +4331,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="9"/>
       <c r="P21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="14"/>
@@ -4414,9 +4355,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
@@ -4428,14 +4367,14 @@
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4447,14 +4386,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4473,7 +4412,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4485,16 +4424,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="12"/>
@@ -4511,7 +4448,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="14"/>
@@ -4523,14 +4460,14 @@
       <c r="N28" s="14"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="14"/>
@@ -4547,7 +4484,7 @@
       <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="14"/>
@@ -4559,14 +4496,14 @@
       <c r="N30" s="14"/>
       <c r="O30" s="9"/>
       <c r="P30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="14"/>
@@ -4583,9 +4520,7 @@
       <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="58" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
@@ -4597,14 +4532,14 @@
       <c r="N32" s="12"/>
       <c r="O32" s="8"/>
       <c r="P32" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -4616,14 +4551,14 @@
       <c r="N33" s="34"/>
       <c r="O33" s="35"/>
       <c r="P33" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4642,7 +4577,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4654,16 +4589,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="10"/>
       <c r="P35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
@@ -4680,7 +4613,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="55"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
@@ -4692,14 +4625,14 @@
       <c r="N37" s="14"/>
       <c r="O37" s="9"/>
       <c r="P37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="55"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
@@ -4716,7 +4649,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="14"/>
@@ -4728,14 +4661,14 @@
       <c r="N39" s="14"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="14"/>
@@ -4752,9 +4685,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="E41" s="39"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -4766,11 +4697,31 @@
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -4781,29 +4732,9 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E35"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4816,7 +4747,7 @@
   <dimension ref="B1:P41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" activeCellId="3" sqref="E14 E23 E32 E41"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4830,110 +4761,110 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="L3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -4945,14 +4876,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -4971,7 +4902,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4983,16 +4914,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="10"/>
       <c r="P8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -5009,7 +4938,7 @@
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="14"/>
@@ -5021,14 +4950,14 @@
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
@@ -5045,7 +4974,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
@@ -5057,14 +4986,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -5081,9 +5010,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
@@ -5095,14 +5022,14 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5114,14 +5041,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5140,7 +5067,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5152,16 +5079,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="10"/>
       <c r="P17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -5178,7 +5103,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="14"/>
@@ -5190,14 +5115,14 @@
       <c r="N19" s="14"/>
       <c r="O19" s="9"/>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="14"/>
@@ -5214,7 +5139,7 @@
       <c r="B21" s="28"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="14"/>
@@ -5226,14 +5151,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="9"/>
       <c r="P21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="14"/>
@@ -5250,9 +5175,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
@@ -5264,14 +5187,14 @@
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5283,14 +5206,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5309,7 +5232,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5321,16 +5244,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="12"/>
@@ -5347,7 +5268,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="14"/>
@@ -5359,14 +5280,14 @@
       <c r="N28" s="14"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="14"/>
@@ -5383,7 +5304,7 @@
       <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="14"/>
@@ -5395,14 +5316,14 @@
       <c r="N30" s="14"/>
       <c r="O30" s="9"/>
       <c r="P30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="14"/>
@@ -5419,9 +5340,7 @@
       <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="58" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
@@ -5433,14 +5352,14 @@
       <c r="N32" s="12"/>
       <c r="O32" s="8"/>
       <c r="P32" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -5452,14 +5371,14 @@
       <c r="N33" s="34"/>
       <c r="O33" s="35"/>
       <c r="P33" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -5478,7 +5397,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -5490,16 +5409,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="10"/>
       <c r="P35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
@@ -5516,7 +5433,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="55"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
@@ -5528,14 +5445,14 @@
       <c r="N37" s="14"/>
       <c r="O37" s="9"/>
       <c r="P37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="55"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
@@ -5552,7 +5469,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="14"/>
@@ -5564,14 +5481,14 @@
       <c r="N39" s="14"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="14"/>
@@ -5588,9 +5505,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="E41" s="39"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -5602,11 +5517,31 @@
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -5617,29 +5552,9 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E35"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5652,7 +5567,7 @@
   <dimension ref="B1:P41"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5666,110 +5581,110 @@
   <sheetData>
     <row r="1" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="53"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="44"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="52"/>
+      <c r="E2" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="43"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="E3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="L3" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="E3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="L3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="42"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="46" t="s">
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="42" t="s">
+      <c r="P4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="49"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="43"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="56"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5781,14 +5696,14 @@
       <c r="N6" s="1"/>
       <c r="O6" s="10"/>
       <c r="P6" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="11"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5807,7 +5722,7 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="41"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5819,16 +5734,14 @@
       <c r="N8" s="1"/>
       <c r="O8" s="10"/>
       <c r="P8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="27"/>
       <c r="C9" s="11"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="45"/>
       <c r="F9" s="12"/>
       <c r="G9" s="8"/>
       <c r="H9" s="12"/>
@@ -5845,7 +5758,7 @@
       <c r="B10" s="28"/>
       <c r="C10" s="11"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="55"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
       <c r="H10" s="14"/>
@@ -5857,14 +5770,14 @@
       <c r="N10" s="14"/>
       <c r="O10" s="9"/>
       <c r="P10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="28"/>
       <c r="C11" s="11"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="55"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
       <c r="H11" s="14"/>
@@ -5881,7 +5794,7 @@
       <c r="B12" s="28"/>
       <c r="C12" s="11"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="55"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="14"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
@@ -5893,14 +5806,14 @@
       <c r="N12" s="14"/>
       <c r="O12" s="9"/>
       <c r="P12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="11"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="56"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="14"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
@@ -5917,9 +5830,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E14" s="37"/>
       <c r="F14" s="17"/>
       <c r="G14" s="18"/>
       <c r="H14" s="17"/>
@@ -5931,14 +5842,14 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="44"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5950,14 +5861,14 @@
       <c r="N15" s="1"/>
       <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="11"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="51"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -5976,7 +5887,7 @@
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -5988,16 +5899,14 @@
       <c r="N17" s="1"/>
       <c r="O17" s="10"/>
       <c r="P17" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="11"/>
       <c r="D18" s="9"/>
-      <c r="E18" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E18" s="45"/>
       <c r="F18" s="12"/>
       <c r="G18" s="8"/>
       <c r="H18" s="12"/>
@@ -6014,7 +5923,7 @@
       <c r="B19" s="28"/>
       <c r="C19" s="11"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="55"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
       <c r="H19" s="14"/>
@@ -6026,14 +5935,14 @@
       <c r="N19" s="14"/>
       <c r="O19" s="9"/>
       <c r="P19" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="28"/>
       <c r="C20" s="11"/>
       <c r="D20" s="9"/>
-      <c r="E20" s="55"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
       <c r="H20" s="14"/>
@@ -6050,7 +5959,7 @@
       <c r="B21" s="28"/>
       <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="55"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="14"/>
       <c r="G21" s="11"/>
       <c r="H21" s="14"/>
@@ -6062,14 +5971,14 @@
       <c r="N21" s="14"/>
       <c r="O21" s="9"/>
       <c r="P21" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="11"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="56"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="14"/>
       <c r="G22" s="11"/>
       <c r="H22" s="14"/>
@@ -6086,9 +5995,7 @@
       <c r="B23" s="29"/>
       <c r="C23" s="15"/>
       <c r="D23" s="16"/>
-      <c r="E23" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="E23" s="37"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
       <c r="H23" s="17"/>
@@ -6100,14 +6007,14 @@
       <c r="N23" s="17"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="50"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -6119,14 +6026,14 @@
       <c r="N24" s="1"/>
       <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -6145,7 +6052,7 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -6157,16 +6064,14 @@
       <c r="N26" s="1"/>
       <c r="O26" s="10"/>
       <c r="P26" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="27"/>
       <c r="C27" s="11"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E27" s="45"/>
       <c r="F27" s="12"/>
       <c r="G27" s="8"/>
       <c r="H27" s="12"/>
@@ -6183,7 +6088,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="55"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="14"/>
       <c r="G28" s="11"/>
       <c r="H28" s="14"/>
@@ -6195,14 +6100,14 @@
       <c r="N28" s="14"/>
       <c r="O28" s="9"/>
       <c r="P28" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="28"/>
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="55"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="14"/>
       <c r="G29" s="11"/>
       <c r="H29" s="14"/>
@@ -6219,7 +6124,7 @@
       <c r="B30" s="28"/>
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="55"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="14"/>
       <c r="G30" s="11"/>
       <c r="H30" s="14"/>
@@ -6231,14 +6136,14 @@
       <c r="N30" s="14"/>
       <c r="O30" s="9"/>
       <c r="P30" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="56"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="14"/>
       <c r="G31" s="11"/>
       <c r="H31" s="14"/>
@@ -6255,9 +6160,7 @@
       <c r="B32" s="28"/>
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="58" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="38"/>
       <c r="F32" s="12"/>
       <c r="G32" s="8"/>
       <c r="H32" s="12"/>
@@ -6269,14 +6172,14 @@
       <c r="N32" s="12"/>
       <c r="O32" s="8"/>
       <c r="P32" s="31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="39"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
       <c r="H33" s="34"/>
@@ -6288,14 +6191,14 @@
       <c r="N33" s="34"/>
       <c r="O33" s="35"/>
       <c r="P33" s="36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="38"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -6314,7 +6217,7 @@
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -6326,16 +6229,14 @@
       <c r="N35" s="1"/>
       <c r="O35" s="10"/>
       <c r="P35" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="11"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="54" t="s">
-        <v>9</v>
-      </c>
+      <c r="E36" s="45"/>
       <c r="F36" s="12"/>
       <c r="G36" s="8"/>
       <c r="H36" s="12"/>
@@ -6352,7 +6253,7 @@
       <c r="B37" s="28"/>
       <c r="C37" s="11"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="55"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="14"/>
       <c r="G37" s="11"/>
       <c r="H37" s="14"/>
@@ -6364,14 +6265,14 @@
       <c r="N37" s="14"/>
       <c r="O37" s="9"/>
       <c r="P37" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="11"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="55"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="14"/>
       <c r="G38" s="11"/>
       <c r="H38" s="14"/>
@@ -6388,7 +6289,7 @@
       <c r="B39" s="28"/>
       <c r="C39" s="11"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="14"/>
       <c r="G39" s="11"/>
       <c r="H39" s="14"/>
@@ -6400,14 +6301,14 @@
       <c r="N39" s="14"/>
       <c r="O39" s="9"/>
       <c r="P39" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="28"/>
       <c r="C40" s="11"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="56"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="14"/>
       <c r="G40" s="11"/>
       <c r="H40" s="14"/>
@@ -6424,9 +6325,7 @@
       <c r="B41" s="30"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="59" t="s">
-        <v>10</v>
-      </c>
+      <c r="E41" s="39"/>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="21"/>
@@ -6438,11 +6337,31 @@
       <c r="N41" s="21"/>
       <c r="O41" s="22"/>
       <c r="P41" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
@@ -6453,29 +6372,9 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E13"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E35"/>
   </mergeCells>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="10" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>